--- a/Отчетность/2023-2024_2ОИБАС1322_Операционные системы_I семестр.xlsx
+++ b/Отчетность/2023-2024_2ОИБАС1322_Операционные системы_I семестр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ОИБАС1322: Операционные системы (Сибирев И. В.) - I семестр</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Отчислен</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>аттестовано</t>
+  </si>
+  <si>
+    <t>н/а</t>
+  </si>
+  <si>
+    <t>ср балл</t>
+  </si>
+  <si>
+    <t>кач-во,%</t>
+  </si>
+  <si>
+    <t>успев.,%</t>
+  </si>
+  <si>
+    <t>ФИО неуспевающих</t>
   </si>
 </sst>
 </file>
@@ -136,12 +157,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -171,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,6 +209,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -502,22 +532,95 @@
     <col min="3" max="3" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>SUM(D4:D34)</f>
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <f>SUM(F3:I3)</f>
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <f>SUM(F4:F31)</f>
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <f>SUM(G4:G31)</f>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>SUM(H4:H31)</f>
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>SUM(I4:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>SUM(J4:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <f>((F3*5)+(G3*4)+(H3*3)+(I3*2))/E3</f>
+        <v>4.115384615384615</v>
+      </c>
+      <c r="L3" s="6">
+        <f>((F3+G3)/D3)</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="M3" s="6">
+        <f>(F3+G3+H3)/D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -527,8 +630,31 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>IF(F$2=$C4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:J4" si="0">IF(G$2=$C4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -538,8 +664,31 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:J30" si="1">IF(F$2=$C5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -549,8 +698,31 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -560,8 +732,31 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -571,8 +766,31 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -582,8 +800,31 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -593,8 +834,31 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -604,8 +868,31 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -615,8 +902,31 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -626,8 +936,31 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -637,8 +970,31 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -648,8 +1004,31 @@
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -659,8 +1038,31 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -670,8 +1072,31 @@
       <c r="C17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -681,8 +1106,31 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -692,8 +1140,31 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -703,8 +1174,31 @@
       <c r="C20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -714,8 +1208,31 @@
       <c r="C21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -725,8 +1242,31 @@
       <c r="C22" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -736,8 +1276,31 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -747,8 +1310,31 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -758,8 +1344,31 @@
       <c r="C25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -769,8 +1378,31 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -780,8 +1412,31 @@
       <c r="C27" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -791,8 +1446,31 @@
       <c r="C28" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -802,8 +1480,31 @@
       <c r="C29" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -813,8 +1514,31 @@
       <c r="C30" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3">
         <v>1</v>
       </c>
